--- a/public/Empresas.xlsx
+++ b/public/Empresas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Santiago\argon\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4569FEA-A47A-4385-87A6-8EBCCCC02A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143DC4BE-41C8-451E-8345-4DAAE3C06F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>qweee</t>
-  </si>
-  <si>
-    <t>qw11123</t>
-  </si>
-  <si>
-    <t>dasdasdas</t>
+    <t>nit</t>
   </si>
 </sst>
 </file>
@@ -399,32 +393,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8168F-52B8-42A5-AB92-3B0ABDB1826D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/Empresas.xlsx
+++ b/public/Empresas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Santiago\argon\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143DC4BE-41C8-451E-8345-4DAAE3C06F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C831B2-A125-4CF2-BC5E-3938AECAFCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
+    <workbookView xWindow="-22695" yWindow="5340" windowWidth="15375" windowHeight="7875" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>nombre</t>
   </si>
   <si>
     <t>nit</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -393,24 +396,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8168F-52B8-42A5-AB92-3B0ABDB1826D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00 CONFIDENTIAL &amp; RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>